--- a/data/coin_desk_chart.xlsx
+++ b/data/coin_desk_chart.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="21-04-2025" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ada" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="27-04-2025" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -312,7 +313,6 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -423,6 +423,119 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Top Keywords by Frequency</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'27-04-2025'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'27-04-2025'!$A$3:$A$102</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'27-04-2025'!$B$3:$B$102</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Occurrences</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Keywords</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -451,6 +564,33 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -2762,4 +2902,1050 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" style="1" min="1" max="1"/>
+    <col width="15" customWidth="1" style="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword Analysis Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Occurrences</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>crypto</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>btc</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>apr</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>ago</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>xrp</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>trump</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>coindesk</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>stablecoin</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>breakout</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>omkar</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>godbole</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>token</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>buys</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>$87k</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>etf</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>privacy</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>bnb</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>sol</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>powell</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>daybook</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>americas</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>increases</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>bitcoin's</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>signals</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>rallying</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>$90k-$92k</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>technical</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>giant</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>circle</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>launching</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>payments</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>remittance</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>digital</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>moves</t>
+        </is>
+      </c>
+      <c r="B58" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>volatility</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>trading</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>capital</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>consensus</t>
+        </is>
+      </c>
+      <c r="B64" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>blockchain</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>pushes</t>
+        </is>
+      </c>
+      <c r="B66" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>indicator</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>surges</t>
+        </is>
+      </c>
+      <c r="B68" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>massive</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>eigenlayer</t>
+        </is>
+      </c>
+      <c r="B70" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>$555m</t>
+        </is>
+      </c>
+      <c r="B72" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>stash</t>
+        </is>
+      </c>
+      <c r="B74" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>538,200</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>spike</t>
+        </is>
+      </c>
+      <c r="B76" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>narrative</t>
+        </is>
+      </c>
+      <c r="B78" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>makes</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>comeback</t>
+        </is>
+      </c>
+      <c r="B80" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>worth</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
+      <c r="B82" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>dollar</t>
+        </is>
+      </c>
+      <c r="B84" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>crashes</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>looks</t>
+        </is>
+      </c>
+      <c r="B86" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>terminate</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>fed’s</t>
+        </is>
+      </c>
+      <c r="B88" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>dire</t>
+        </is>
+      </c>
+      <c r="B90" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>miners</t>
+        </is>
+      </c>
+      <c r="B92" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>flatlines</t>
+        </is>
+      </c>
+      <c r="B94" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>record</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B96" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>coiled</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>mirrors</t>
+        </is>
+      </c>
+      <c r="B98" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="B100" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>kraken</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B102" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>